--- a/output/data_reports/latam_availability.xlsx
+++ b/output/data_reports/latam_availability.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="230">
   <si>
     <t>country</t>
   </si>
@@ -306,6 +306,9 @@
     <t>2. Interpolation</t>
   </si>
   <si>
+    <t>4. Tax tabulation and survey microdata</t>
+  </si>
+  <si>
     <t>3. Surveys, but no tax data</t>
   </si>
   <si>
@@ -688,6 +691,9 @@
   </si>
   <si>
     <t>admin_other</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>no</t>
@@ -763,13 +769,13 @@
         <v>94</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
@@ -792,13 +798,13 @@
         <v>95</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3">
@@ -821,13 +827,13 @@
         <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4">
@@ -850,13 +856,13 @@
         <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
@@ -879,13 +885,13 @@
         <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6">
@@ -908,13 +914,13 @@
         <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7">
@@ -937,13 +943,13 @@
         <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8">
@@ -966,13 +972,13 @@
         <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9">
@@ -995,13 +1001,13 @@
         <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10">
@@ -1024,13 +1030,13 @@
         <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11">
@@ -1053,13 +1059,13 @@
         <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -1082,13 +1088,13 @@
         <v>95</v>
       </c>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13">
@@ -1111,13 +1117,13 @@
         <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14">
@@ -1140,13 +1146,13 @@
         <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15">
@@ -1169,13 +1175,13 @@
         <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16">
@@ -1198,13 +1204,13 @@
         <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17">
@@ -1227,13 +1233,13 @@
         <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18">
@@ -1247,22 +1253,22 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>97</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19">
@@ -1276,22 +1282,22 @@
         <v>16</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>97</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20">
@@ -1305,22 +1311,22 @@
         <v>16</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
@@ -1334,22 +1340,22 @@
         <v>16</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
@@ -1369,16 +1375,16 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
@@ -1398,16 +1404,16 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
@@ -1427,16 +1433,16 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
@@ -1456,16 +1462,16 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
@@ -1485,16 +1491,16 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
@@ -1514,16 +1520,16 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H27" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28">
@@ -1543,16 +1549,16 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
@@ -1572,16 +1578,16 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30">
@@ -1601,16 +1607,16 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I30" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
@@ -1630,16 +1636,16 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32">
@@ -1659,16 +1665,16 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
@@ -1688,16 +1694,16 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I33" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34">
@@ -1717,16 +1723,16 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I34" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35">
@@ -1746,16 +1752,16 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I35" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36">
@@ -1775,16 +1781,16 @@
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I36" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
@@ -1804,16 +1810,16 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I37" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
@@ -1833,16 +1839,16 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39">
@@ -1862,16 +1868,16 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H39" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40">
@@ -1891,16 +1897,16 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I40" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41">
@@ -1920,16 +1926,16 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I41" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
@@ -1949,16 +1955,16 @@
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43">
@@ -1978,16 +1984,16 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44">
@@ -2007,16 +2013,16 @@
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45">
@@ -2036,16 +2042,16 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46">
@@ -2065,16 +2071,16 @@
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I46" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47">
@@ -2094,16 +2100,16 @@
         <v>4</v>
       </c>
       <c r="F47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48">
@@ -2123,16 +2129,16 @@
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49">
@@ -2152,16 +2158,16 @@
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50">
@@ -2181,16 +2187,16 @@
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51">
@@ -2210,16 +2216,16 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I51" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52">
@@ -2239,16 +2245,16 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I52" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53">
@@ -2268,16 +2274,16 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I53" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54">
@@ -2297,16 +2303,16 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I54" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55">
@@ -2326,16 +2332,16 @@
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I55" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56">
@@ -2355,16 +2361,16 @@
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57">
@@ -2384,16 +2390,16 @@
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H57" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58">
@@ -2413,16 +2419,16 @@
         <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I58" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59">
@@ -2442,16 +2448,16 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60">
@@ -2471,16 +2477,16 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I60" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61">
@@ -2500,16 +2506,16 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62">
@@ -2529,16 +2535,16 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H62" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I62" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63">
@@ -2558,16 +2564,16 @@
         <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64">
@@ -2587,16 +2593,16 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65">
@@ -2616,16 +2622,16 @@
         <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I65" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66">
@@ -2645,16 +2651,16 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I66" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67">
@@ -2674,16 +2680,16 @@
         <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I67" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68">
@@ -2703,16 +2709,16 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I68" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69">
@@ -2732,16 +2738,16 @@
         <v>4</v>
       </c>
       <c r="F69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I69" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70">
@@ -2761,16 +2767,16 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71">
@@ -2790,16 +2796,16 @@
         <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72">
@@ -2819,16 +2825,16 @@
         <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H72" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I72" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73">
@@ -2848,16 +2854,16 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74">
@@ -2877,16 +2883,16 @@
         <v>4</v>
       </c>
       <c r="F74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I74" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75">
@@ -2906,16 +2912,16 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I75" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="76">
@@ -2935,16 +2941,16 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G76" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77">
@@ -2964,16 +2970,16 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I77" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78">
@@ -2993,16 +2999,16 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I78" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79">
@@ -3022,16 +3028,16 @@
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I79" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80">
@@ -3051,16 +3057,16 @@
         <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G80" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I80" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="81">
@@ -3080,16 +3086,16 @@
         <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I81" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82">
@@ -3109,16 +3115,16 @@
         <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G82" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I82" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83">
@@ -3138,16 +3144,16 @@
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I83" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84">
@@ -3167,16 +3173,16 @@
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I84" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85">
@@ -3196,16 +3202,16 @@
         <v>3</v>
       </c>
       <c r="F85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86">
@@ -3225,16 +3231,16 @@
         <v>3</v>
       </c>
       <c r="F86" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I86" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87">
@@ -3254,16 +3260,16 @@
         <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I87" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88">
@@ -3283,16 +3289,16 @@
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89">
@@ -3312,16 +3318,16 @@
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G89" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90">
@@ -3341,16 +3347,16 @@
         <v>3</v>
       </c>
       <c r="F90" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I90" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="91">
@@ -3370,16 +3376,16 @@
         <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G91" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I91" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92">
@@ -3399,16 +3405,16 @@
         <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I92" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93">
@@ -3428,16 +3434,16 @@
         <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I93" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94">
@@ -3457,16 +3463,16 @@
         <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G94" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I94" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95">
@@ -3486,16 +3492,16 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G95" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H95" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I95" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96">
@@ -3515,16 +3521,16 @@
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97">
@@ -3544,16 +3550,16 @@
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I97" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98">
@@ -3573,16 +3579,16 @@
         <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I98" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99">
@@ -3602,16 +3608,16 @@
         <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G99" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I99" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100">
@@ -3631,16 +3637,16 @@
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H100" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I100" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101">
@@ -3660,16 +3666,16 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G101" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H101" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I101" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102">
@@ -3689,16 +3695,16 @@
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G102" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I102" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103">
@@ -3718,16 +3724,16 @@
         <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G103" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104">
@@ -3747,16 +3753,16 @@
         <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H104" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I104" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105">
@@ -3776,16 +3782,16 @@
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H105" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I105" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106">
@@ -3805,16 +3811,16 @@
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G106" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H106" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107">
@@ -3834,16 +3840,16 @@
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I107" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108">
@@ -3863,16 +3869,16 @@
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G108" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I108" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109">
@@ -3892,16 +3898,16 @@
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G109" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H109" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I109" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110">
@@ -3921,16 +3927,16 @@
         <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G110" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I110" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111">
@@ -3950,16 +3956,16 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I111" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112">
@@ -3979,16 +3985,16 @@
         <v>5</v>
       </c>
       <c r="F112" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H112" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I112" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113">
@@ -4008,16 +4014,16 @@
         <v>5</v>
       </c>
       <c r="F113" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H113" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I113" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114">
@@ -4037,16 +4043,16 @@
         <v>5</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G114" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H114" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I114" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115">
@@ -4066,16 +4072,16 @@
         <v>5</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G115" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H115" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I115" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116">
@@ -4095,16 +4101,16 @@
         <v>5</v>
       </c>
       <c r="F116" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G116" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H116" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117">
@@ -4124,16 +4130,16 @@
         <v>5</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G117" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I117" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118">
@@ -4153,16 +4159,16 @@
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G118" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H118" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I118" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119">
@@ -4182,16 +4188,16 @@
         <v>3</v>
       </c>
       <c r="F119" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G119" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I119" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120">
@@ -4211,16 +4217,16 @@
         <v>3</v>
       </c>
       <c r="F120" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H120" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I120" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121">
@@ -4240,16 +4246,16 @@
         <v>3</v>
       </c>
       <c r="F121" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G121" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H121" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I121" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122">
@@ -4269,16 +4275,16 @@
         <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G122" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H122" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I122" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123">
@@ -4298,16 +4304,16 @@
         <v>3</v>
       </c>
       <c r="F123" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G123" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H123" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I123" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124">
@@ -4327,16 +4333,16 @@
         <v>3</v>
       </c>
       <c r="F124" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G124" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I124" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125">
@@ -4356,16 +4362,16 @@
         <v>3</v>
       </c>
       <c r="F125" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G125" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H125" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I125" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126">
@@ -4385,16 +4391,16 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G126" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H126" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I126" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="127">
@@ -4414,16 +4420,16 @@
         <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G127" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H127" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I127" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128">
@@ -4443,16 +4449,16 @@
         <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G128" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H128" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I128" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129">
@@ -4472,16 +4478,16 @@
         <v>3</v>
       </c>
       <c r="F129" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G129" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H129" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130">
@@ -4501,16 +4507,16 @@
         <v>3</v>
       </c>
       <c r="F130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G130" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H130" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I130" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131">
@@ -4530,16 +4536,16 @@
         <v>3</v>
       </c>
       <c r="F131" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G131" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H131" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I131" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132">
@@ -4559,16 +4565,16 @@
         <v>3</v>
       </c>
       <c r="F132" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G132" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H132" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I132" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133">
@@ -4588,16 +4594,16 @@
         <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G133" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H133" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I133" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134">
@@ -4617,16 +4623,16 @@
         <v>3</v>
       </c>
       <c r="F134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G134" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H134" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I134" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135">
@@ -4646,16 +4652,16 @@
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G135" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H135" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I135" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136">
@@ -4675,16 +4681,16 @@
         <v>3</v>
       </c>
       <c r="F136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G136" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H136" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I136" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137">
@@ -4704,16 +4710,16 @@
         <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G137" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H137" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I137" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138">
@@ -4733,16 +4739,16 @@
         <v>3</v>
       </c>
       <c r="F138" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G138" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H138" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I138" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139">
@@ -4762,16 +4768,16 @@
         <v>4</v>
       </c>
       <c r="F139" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G139" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H139" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I139" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140">
@@ -4791,16 +4797,16 @@
         <v>4</v>
       </c>
       <c r="F140" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G140" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H140" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I140" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141">
@@ -4820,16 +4826,16 @@
         <v>4</v>
       </c>
       <c r="F141" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G141" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H141" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I141" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142">
@@ -4849,16 +4855,16 @@
         <v>4</v>
       </c>
       <c r="F142" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G142" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H142" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I142" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="143">
@@ -4878,16 +4884,16 @@
         <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G143" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H143" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I143" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144">
@@ -4907,16 +4913,16 @@
         <v>4</v>
       </c>
       <c r="F144" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G144" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H144" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I144" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145">
@@ -4936,16 +4942,16 @@
         <v>4</v>
       </c>
       <c r="F145" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G145" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H145" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I145" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146">
@@ -4965,16 +4971,16 @@
         <v>4</v>
       </c>
       <c r="F146" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G146" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H146" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I146" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147">
@@ -4994,16 +5000,16 @@
         <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G147" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H147" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I147" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="148">
@@ -5023,16 +5029,16 @@
         <v>3</v>
       </c>
       <c r="F148" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G148" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H148" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I148" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149">
@@ -5052,16 +5058,16 @@
         <v>3</v>
       </c>
       <c r="F149" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G149" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H149" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I149" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150">
@@ -5081,16 +5087,16 @@
         <v>3</v>
       </c>
       <c r="F150" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G150" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H150" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I150" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="151">
@@ -5110,16 +5116,16 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G151" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H151" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I151" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="152">
@@ -5139,16 +5145,16 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G152" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H152" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I152" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="153">
@@ -5168,16 +5174,16 @@
         <v>3</v>
       </c>
       <c r="F153" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G153" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H153" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I153" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="154">
@@ -5197,16 +5203,16 @@
         <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G154" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H154" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I154" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="155">
@@ -5226,16 +5232,16 @@
         <v>3</v>
       </c>
       <c r="F155" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G155" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H155" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I155" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="156">
@@ -5255,16 +5261,16 @@
         <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G156" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H156" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I156" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="157">
@@ -5284,16 +5290,16 @@
         <v>3</v>
       </c>
       <c r="F157" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G157" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H157" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I157" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="158">
@@ -5313,16 +5319,16 @@
         <v>3</v>
       </c>
       <c r="F158" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G158" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H158" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I158" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159">
@@ -5342,16 +5348,16 @@
         <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G159" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H159" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I159" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160">
@@ -5371,16 +5377,16 @@
         <v>4</v>
       </c>
       <c r="F160" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G160" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H160" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I160" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161">
@@ -5400,16 +5406,16 @@
         <v>4</v>
       </c>
       <c r="F161" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G161" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H161" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I161" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162">
@@ -5429,16 +5435,16 @@
         <v>4</v>
       </c>
       <c r="F162" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H162" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I162" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="163">
@@ -5458,16 +5464,16 @@
         <v>4</v>
       </c>
       <c r="F163" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G163" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H163" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I163" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164">
@@ -5487,16 +5493,16 @@
         <v>3</v>
       </c>
       <c r="F164" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G164" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H164" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I164" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="165">
@@ -5516,16 +5522,16 @@
         <v>3</v>
       </c>
       <c r="F165" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G165" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H165" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I165" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="166">
@@ -5545,16 +5551,16 @@
         <v>3</v>
       </c>
       <c r="F166" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G166" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H166" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I166" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167">
@@ -5574,16 +5580,16 @@
         <v>3</v>
       </c>
       <c r="F167" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G167" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H167" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I167" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="168">
@@ -5603,16 +5609,16 @@
         <v>3</v>
       </c>
       <c r="F168" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G168" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H168" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I168" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="169">
@@ -5632,16 +5638,16 @@
         <v>3</v>
       </c>
       <c r="F169" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G169" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H169" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I169" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="170">
@@ -5661,16 +5667,16 @@
         <v>3</v>
       </c>
       <c r="F170" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G170" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H170" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I170" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="171">
@@ -5690,16 +5696,16 @@
         <v>3</v>
       </c>
       <c r="F171" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G171" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H171" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I171" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172">
@@ -5719,16 +5725,16 @@
         <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G172" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H172" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I172" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173">
@@ -5748,16 +5754,16 @@
         <v>3</v>
       </c>
       <c r="F173" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G173" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H173" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I173" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174">
@@ -5777,16 +5783,16 @@
         <v>3</v>
       </c>
       <c r="F174" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G174" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H174" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I174" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175">
@@ -5806,16 +5812,16 @@
         <v>3</v>
       </c>
       <c r="F175" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G175" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H175" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I175" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="176">
@@ -5835,16 +5841,16 @@
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G176" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H176" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I176" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177">
@@ -5864,16 +5870,16 @@
         <v>3</v>
       </c>
       <c r="F177" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G177" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H177" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I177" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178">
@@ -5893,16 +5899,16 @@
         <v>2</v>
       </c>
       <c r="F178" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G178" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H178" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I178" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="179">
@@ -5922,16 +5928,16 @@
         <v>3</v>
       </c>
       <c r="F179" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G179" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H179" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I179" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="180">
@@ -5951,16 +5957,16 @@
         <v>2</v>
       </c>
       <c r="F180" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G180" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H180" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I180" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181">
@@ -5980,16 +5986,16 @@
         <v>3</v>
       </c>
       <c r="F181" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G181" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H181" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I181" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182">
@@ -6009,16 +6015,16 @@
         <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G182" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H182" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I182" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183">
@@ -6038,16 +6044,16 @@
         <v>3</v>
       </c>
       <c r="F183" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H183" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I183" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="184">
@@ -6067,16 +6073,16 @@
         <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G184" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H184" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I184" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="185">
@@ -6096,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="F185" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G185" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H185" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I185" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186">
@@ -6125,16 +6131,16 @@
         <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G186" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H186" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I186" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187">
@@ -6154,16 +6160,16 @@
         <v>5</v>
       </c>
       <c r="F187" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G187" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I187" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="188">
@@ -6183,16 +6189,16 @@
         <v>2</v>
       </c>
       <c r="F188" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G188" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H188" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I188" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189">
@@ -6212,16 +6218,16 @@
         <v>5</v>
       </c>
       <c r="F189" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G189" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H189" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I189" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="190">
@@ -6241,16 +6247,16 @@
         <v>2</v>
       </c>
       <c r="F190" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G190" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H190" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I190" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="191">
@@ -6270,16 +6276,16 @@
         <v>5</v>
       </c>
       <c r="F191" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G191" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H191" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I191" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="192">
@@ -6299,16 +6305,16 @@
         <v>2</v>
       </c>
       <c r="F192" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G192" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H192" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I192" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="193">
@@ -6328,16 +6334,16 @@
         <v>3</v>
       </c>
       <c r="F193" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G193" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H193" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I193" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194">
@@ -6357,16 +6363,16 @@
         <v>2</v>
       </c>
       <c r="F194" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G194" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H194" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I194" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="195">
@@ -6386,16 +6392,16 @@
         <v>3</v>
       </c>
       <c r="F195" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G195" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H195" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I195" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="196">
@@ -6415,16 +6421,16 @@
         <v>2</v>
       </c>
       <c r="F196" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G196" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H196" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I196" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197">
@@ -6444,16 +6450,16 @@
         <v>3</v>
       </c>
       <c r="F197" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G197" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H197" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I197" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198">
@@ -6473,16 +6479,16 @@
         <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G198" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H198" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I198" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199">
@@ -6502,16 +6508,16 @@
         <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G199" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H199" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I199" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200">
@@ -6531,16 +6537,16 @@
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G200" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H200" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I200" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201">
@@ -6560,16 +6566,16 @@
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G201" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H201" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I201" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202">
@@ -6589,16 +6595,16 @@
         <v>3</v>
       </c>
       <c r="F202" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G202" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I202" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="203">
@@ -6618,16 +6624,16 @@
         <v>3</v>
       </c>
       <c r="F203" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G203" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H203" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I203" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="204">
@@ -6647,16 +6653,16 @@
         <v>3</v>
       </c>
       <c r="F204" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G204" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H204" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I204" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205">
@@ -6676,16 +6682,16 @@
         <v>3</v>
       </c>
       <c r="F205" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G205" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H205" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I205" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206">
@@ -6705,16 +6711,16 @@
         <v>3</v>
       </c>
       <c r="F206" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G206" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H206" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I206" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207">
@@ -6734,16 +6740,16 @@
         <v>3</v>
       </c>
       <c r="F207" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H207" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I207" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208">
@@ -6763,16 +6769,16 @@
         <v>3</v>
       </c>
       <c r="F208" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H208" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I208" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209">
@@ -6792,16 +6798,16 @@
         <v>3</v>
       </c>
       <c r="F209" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G209" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H209" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I209" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210">
@@ -6821,16 +6827,16 @@
         <v>3</v>
       </c>
       <c r="F210" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G210" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H210" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I210" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211">
@@ -6850,16 +6856,16 @@
         <v>3</v>
       </c>
       <c r="F211" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G211" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H211" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I211" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212">
@@ -6879,16 +6885,16 @@
         <v>3</v>
       </c>
       <c r="F212" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G212" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H212" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I212" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213">
@@ -6908,16 +6914,16 @@
         <v>3</v>
       </c>
       <c r="F213" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G213" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H213" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I213" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214">
@@ -6937,16 +6943,16 @@
         <v>3</v>
       </c>
       <c r="F214" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G214" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H214" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I214" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215">
@@ -6966,16 +6972,16 @@
         <v>3</v>
       </c>
       <c r="F215" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G215" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H215" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I215" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="216">
@@ -6995,16 +7001,16 @@
         <v>3</v>
       </c>
       <c r="F216" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G216" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H216" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I216" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217">
@@ -7024,16 +7030,16 @@
         <v>3</v>
       </c>
       <c r="F217" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G217" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H217" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I217" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218">
@@ -7053,16 +7059,16 @@
         <v>4</v>
       </c>
       <c r="F218" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G218" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H218" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I218" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219">
@@ -7082,16 +7088,16 @@
         <v>4</v>
       </c>
       <c r="F219" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G219" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H219" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I219" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220">
@@ -7111,16 +7117,16 @@
         <v>4</v>
       </c>
       <c r="F220" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G220" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H220" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I220" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221">
@@ -7140,16 +7146,16 @@
         <v>4</v>
       </c>
       <c r="F221" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G221" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H221" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I221" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222">
@@ -7169,16 +7175,16 @@
         <v>4</v>
       </c>
       <c r="F222" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G222" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H222" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I222" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223">
@@ -7198,16 +7204,16 @@
         <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G223" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H223" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I223" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="224">
@@ -7227,16 +7233,16 @@
         <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G224" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H224" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I224" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="225">
@@ -7256,16 +7262,16 @@
         <v>3</v>
       </c>
       <c r="F225" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G225" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H225" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I225" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="226">
@@ -7285,16 +7291,16 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G226" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H226" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I226" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="227">
@@ -7314,16 +7320,16 @@
         <v>3</v>
       </c>
       <c r="F227" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G227" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H227" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I227" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228">
@@ -7343,16 +7349,16 @@
         <v>4</v>
       </c>
       <c r="F228" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G228" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H228" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I228" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="229">
@@ -7372,16 +7378,16 @@
         <v>4</v>
       </c>
       <c r="F229" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G229" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H229" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I229" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="230">
@@ -7401,16 +7407,16 @@
         <v>4</v>
       </c>
       <c r="F230" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G230" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H230" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I230" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231">
@@ -7430,16 +7436,16 @@
         <v>4</v>
       </c>
       <c r="F231" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G231" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H231" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I231" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="232">
@@ -7459,16 +7465,16 @@
         <v>4</v>
       </c>
       <c r="F232" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G232" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H232" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I232" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233">
@@ -7488,16 +7494,16 @@
         <v>4</v>
       </c>
       <c r="F233" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G233" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H233" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I233" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234">
@@ -7517,16 +7523,16 @@
         <v>4</v>
       </c>
       <c r="F234" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G234" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H234" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I234" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="235">
@@ -7546,16 +7552,16 @@
         <v>2</v>
       </c>
       <c r="F235" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G235" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H235" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I235" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236">
@@ -7575,16 +7581,16 @@
         <v>4</v>
       </c>
       <c r="F236" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G236" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H236" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I236" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="237">
@@ -7604,16 +7610,16 @@
         <v>4</v>
       </c>
       <c r="F237" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G237" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H237" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I237" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="238">
@@ -7633,16 +7639,16 @@
         <v>2</v>
       </c>
       <c r="F238" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G238" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H238" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I238" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="239">
@@ -7662,16 +7668,16 @@
         <v>4</v>
       </c>
       <c r="F239" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G239" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H239" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I239" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="240">
@@ -7691,16 +7697,16 @@
         <v>4</v>
       </c>
       <c r="F240" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G240" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H240" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I240" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="241">
@@ -7720,16 +7726,16 @@
         <v>4</v>
       </c>
       <c r="F241" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G241" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H241" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I241" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="242">
@@ -7749,16 +7755,16 @@
         <v>4</v>
       </c>
       <c r="F242" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G242" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H242" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I242" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="243">
@@ -7778,16 +7784,16 @@
         <v>4</v>
       </c>
       <c r="F243" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G243" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H243" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I243" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="244">
@@ -7807,16 +7813,16 @@
         <v>4</v>
       </c>
       <c r="F244" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G244" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H244" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I244" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="245">
@@ -7836,16 +7842,16 @@
         <v>3</v>
       </c>
       <c r="F245" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G245" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H245" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I245" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="246">
@@ -7865,16 +7871,16 @@
         <v>3</v>
       </c>
       <c r="F246" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G246" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H246" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I246" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="247">
@@ -7894,16 +7900,16 @@
         <v>3</v>
       </c>
       <c r="F247" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G247" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H247" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I247" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="248">
@@ -7923,16 +7929,16 @@
         <v>3</v>
       </c>
       <c r="F248" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G248" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H248" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I248" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="249">
@@ -7952,16 +7958,16 @@
         <v>3</v>
       </c>
       <c r="F249" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G249" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H249" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I249" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="250">
@@ -7981,16 +7987,16 @@
         <v>3</v>
       </c>
       <c r="F250" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G250" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H250" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I250" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="251">
@@ -8010,16 +8016,16 @@
         <v>1</v>
       </c>
       <c r="F251" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G251" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H251" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I251" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="252">
@@ -8039,16 +8045,16 @@
         <v>3</v>
       </c>
       <c r="F252" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G252" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H252" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I252" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="253">
@@ -8068,16 +8074,16 @@
         <v>3</v>
       </c>
       <c r="F253" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G253" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H253" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I253" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="254">
@@ -8097,16 +8103,16 @@
         <v>3</v>
       </c>
       <c r="F254" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G254" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H254" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I254" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="255">
@@ -8126,16 +8132,16 @@
         <v>3</v>
       </c>
       <c r="F255" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G255" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H255" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I255" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="256">
@@ -8155,16 +8161,16 @@
         <v>3</v>
       </c>
       <c r="F256" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G256" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H256" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I256" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="257">
@@ -8184,16 +8190,16 @@
         <v>3</v>
       </c>
       <c r="F257" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G257" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H257" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I257" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="258">
@@ -8213,16 +8219,16 @@
         <v>2</v>
       </c>
       <c r="F258" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G258" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H258" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I258" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="259">
@@ -8242,16 +8248,16 @@
         <v>3</v>
       </c>
       <c r="F259" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G259" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H259" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I259" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="260">
@@ -8271,16 +8277,16 @@
         <v>3</v>
       </c>
       <c r="F260" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G260" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H260" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I260" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="261">
@@ -8300,16 +8306,16 @@
         <v>5</v>
       </c>
       <c r="F261" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G261" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H261" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I261" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="262">
@@ -8329,16 +8335,16 @@
         <v>5</v>
       </c>
       <c r="F262" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G262" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H262" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I262" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="263">
@@ -8358,16 +8364,16 @@
         <v>5</v>
       </c>
       <c r="F263" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G263" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H263" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I263" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="264">
@@ -8387,16 +8393,16 @@
         <v>5</v>
       </c>
       <c r="F264" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G264" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H264" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I264" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="265">
@@ -8416,16 +8422,16 @@
         <v>5</v>
       </c>
       <c r="F265" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G265" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H265" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I265" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="266">
@@ -8445,16 +8451,16 @@
         <v>5</v>
       </c>
       <c r="F266" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G266" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H266" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I266" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="267">
@@ -8474,16 +8480,16 @@
         <v>5</v>
       </c>
       <c r="F267" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G267" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H267" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I267" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="268">
@@ -8503,16 +8509,16 @@
         <v>5</v>
       </c>
       <c r="F268" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G268" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H268" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I268" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="269">
@@ -8532,16 +8538,16 @@
         <v>3</v>
       </c>
       <c r="F269" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G269" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H269" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I269" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="270">
@@ -8561,16 +8567,16 @@
         <v>3</v>
       </c>
       <c r="F270" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G270" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H270" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I270" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="271">
@@ -8590,16 +8596,16 @@
         <v>3</v>
       </c>
       <c r="F271" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G271" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H271" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I271" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="272">
@@ -8619,16 +8625,16 @@
         <v>3</v>
       </c>
       <c r="F272" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G272" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H272" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I272" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="273">
@@ -8648,16 +8654,16 @@
         <v>3</v>
       </c>
       <c r="F273" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G273" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H273" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I273" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="274">
@@ -8677,16 +8683,16 @@
         <v>3</v>
       </c>
       <c r="F274" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G274" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H274" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I274" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="275">
@@ -8706,16 +8712,16 @@
         <v>3</v>
       </c>
       <c r="F275" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G275" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H275" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I275" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="276">
@@ -8735,16 +8741,16 @@
         <v>1</v>
       </c>
       <c r="F276" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G276" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H276" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I276" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
